--- a/ChildExperiment/Eyes/SubjData/5yQUD/s1-m-e-b.xlsx
+++ b/ChildExperiment/Eyes/SubjData/5yQUD/s1-m-e-b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Onset_Offset" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1183,11 +1183,11 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>DA</v>
+        <v>TI</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
